--- a/simpsons_writers.xlsx
+++ b/simpsons_writers.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="simpsons_writers" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="681">
   <si>
     <t>writer</t>
   </si>
@@ -2056,6 +2056,12 @@
   </si>
   <si>
     <t>4F07</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>[Control + Shift + Enter in formula]</t>
   </si>
 </sst>
 </file>
@@ -2539,8 +2545,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2873,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B706"/>
+  <dimension ref="A1:E706"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,7 +2892,7 @@
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2893,31 +2900,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="array" ref="E3">MAX(LEN(A2:A750))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="array" ref="E4">MAX(LEN(B2:B751))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2925,7 +2952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2933,7 +2960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2941,7 +2968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2949,7 +2976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2957,7 +2984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2965,7 +2992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2973,7 +3000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2981,7 +3008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2989,7 +3016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2997,7 +3024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3005,7 +3032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
